--- a/pageviews/data/senate_views.xlsx
+++ b/pageviews/data/senate_views.xlsx
@@ -58,7 +58,7 @@
     <t>Chris_Coons</t>
   </si>
   <si>
-    <t>Chris_Murphy</t>
+    <t>Chris_Murphy_(Connecticut_politician)</t>
   </si>
   <si>
     <t>Chris_Van_Hollen</t>
@@ -79,7 +79,7 @@
     <t>Cory_Gardner</t>
   </si>
   <si>
-    <t>Dan_Sullivan</t>
+    <t>Dan_Sullivan_(U.S._Senator)</t>
   </si>
   <si>
     <t>David_Perdue</t>
@@ -106,13 +106,13 @@
     <t>Elizabeth_Warren</t>
   </si>
   <si>
-    <t>Gary_Peters</t>
+    <t>Gary_Peters_(politician)</t>
   </si>
   <si>
     <t>Heidi_Heitkamp</t>
   </si>
   <si>
-    <t>Jack_Reed</t>
+    <t>Jack_Reed_(politician)</t>
   </si>
   <si>
     <t>James_Lankford</t>
@@ -217,7 +217,7 @@
     <t>Mike_Enzi</t>
   </si>
   <si>
-    <t>Mike_Lee</t>
+    <t xml:space="preserve">Mike_Lee_(U.S._politician)	</t>
   </si>
   <si>
     <t>Mike_Rounds</t>
@@ -259,7 +259,7 @@
     <t>Roger_Wicker</t>
   </si>
   <si>
-    <t>Ron_Johnson</t>
+    <t>Ron_Johnson_(U.S._politician)</t>
   </si>
   <si>
     <t>Ron_Wyden</t>
@@ -1062,7 +1062,7 @@
         <v>5790</v>
       </c>
       <c r="P2">
-        <v>2512</v>
+        <v>10072</v>
       </c>
       <c r="Q2">
         <v>33189</v>
@@ -1083,7 +1083,7 @@
         <v>8527</v>
       </c>
       <c r="W2">
-        <v>130</v>
+        <v>4499</v>
       </c>
       <c r="X2">
         <v>4877</v>
@@ -1110,13 +1110,13 @@
         <v>160696</v>
       </c>
       <c r="AF2">
-        <v>225</v>
+        <v>6128</v>
       </c>
       <c r="AG2">
         <v>5860</v>
       </c>
       <c r="AH2">
-        <v>903</v>
+        <v>6106</v>
       </c>
       <c r="AI2">
         <v>4928</v>
@@ -1220,9 +1220,6 @@
       <c r="BP2">
         <v>4605</v>
       </c>
-      <c r="BQ2">
-        <v>576</v>
-      </c>
       <c r="BR2">
         <v>3677</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>4681</v>
       </c>
       <c r="CE2">
-        <v>363</v>
+        <v>10852</v>
       </c>
       <c r="CF2">
         <v>12469</v>
@@ -1367,7 +1364,7 @@
         <v>5366</v>
       </c>
       <c r="P3">
-        <v>1866</v>
+        <v>8809</v>
       </c>
       <c r="Q3">
         <v>7070</v>
@@ -1388,7 +1385,7 @@
         <v>8882</v>
       </c>
       <c r="W3">
-        <v>132</v>
+        <v>5184</v>
       </c>
       <c r="X3">
         <v>6035</v>
@@ -1415,13 +1412,13 @@
         <v>393792</v>
       </c>
       <c r="AF3">
-        <v>158</v>
+        <v>5354</v>
       </c>
       <c r="AG3">
         <v>6001</v>
       </c>
       <c r="AH3">
-        <v>557</v>
+        <v>5233</v>
       </c>
       <c r="AI3">
         <v>5738</v>
@@ -1525,9 +1522,6 @@
       <c r="BP3">
         <v>3621</v>
       </c>
-      <c r="BQ3">
-        <v>427</v>
-      </c>
       <c r="BR3">
         <v>3269</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>4247</v>
       </c>
       <c r="CE3">
-        <v>390</v>
+        <v>10516</v>
       </c>
       <c r="CF3">
         <v>17257</v>
@@ -1672,7 +1666,7 @@
         <v>5608</v>
       </c>
       <c r="P4">
-        <v>16093</v>
+        <v>70667</v>
       </c>
       <c r="Q4">
         <v>6293</v>
@@ -1693,7 +1687,7 @@
         <v>9121</v>
       </c>
       <c r="W4">
-        <v>212</v>
+        <v>6053</v>
       </c>
       <c r="X4">
         <v>17800</v>
@@ -1720,13 +1714,13 @@
         <v>747303</v>
       </c>
       <c r="AF4">
-        <v>197</v>
+        <v>5319</v>
       </c>
       <c r="AG4">
         <v>10033</v>
       </c>
       <c r="AH4">
-        <v>476</v>
+        <v>5685</v>
       </c>
       <c r="AI4">
         <v>5308</v>
@@ -1830,9 +1824,6 @@
       <c r="BP4">
         <v>3342</v>
       </c>
-      <c r="BQ4">
-        <v>375</v>
-      </c>
       <c r="BR4">
         <v>3520</v>
       </c>
@@ -1873,7 +1864,7 @@
         <v>4007</v>
       </c>
       <c r="CE4">
-        <v>456</v>
+        <v>13836</v>
       </c>
       <c r="CF4">
         <v>9710</v>
@@ -1977,7 +1968,7 @@
         <v>6261</v>
       </c>
       <c r="P5">
-        <v>3843</v>
+        <v>18559</v>
       </c>
       <c r="Q5">
         <v>6038</v>
@@ -1998,7 +1989,7 @@
         <v>8518</v>
       </c>
       <c r="W5">
-        <v>169</v>
+        <v>6823</v>
       </c>
       <c r="X5">
         <v>7338</v>
@@ -2025,13 +2016,13 @@
         <v>495556</v>
       </c>
       <c r="AF5">
-        <v>201</v>
+        <v>5178</v>
       </c>
       <c r="AG5">
         <v>6376</v>
       </c>
       <c r="AH5">
-        <v>509</v>
+        <v>5501</v>
       </c>
       <c r="AI5">
         <v>6103</v>
@@ -2135,9 +2126,6 @@
       <c r="BP5">
         <v>3815</v>
       </c>
-      <c r="BQ5">
-        <v>496</v>
-      </c>
       <c r="BR5">
         <v>3284</v>
       </c>
@@ -2178,7 +2166,7 @@
         <v>4648</v>
       </c>
       <c r="CE5">
-        <v>506</v>
+        <v>11956</v>
       </c>
       <c r="CF5">
         <v>8367</v>
@@ -2282,7 +2270,7 @@
         <v>5297</v>
       </c>
       <c r="P6">
-        <v>1836</v>
+        <v>11094</v>
       </c>
       <c r="Q6">
         <v>5135</v>
@@ -2303,7 +2291,7 @@
         <v>7080</v>
       </c>
       <c r="W6">
-        <v>128</v>
+        <v>4163</v>
       </c>
       <c r="X6">
         <v>6113</v>
@@ -2330,13 +2318,13 @@
         <v>66370</v>
       </c>
       <c r="AF6">
-        <v>157</v>
+        <v>4331</v>
       </c>
       <c r="AG6">
         <v>5256</v>
       </c>
       <c r="AH6">
-        <v>477</v>
+        <v>4460</v>
       </c>
       <c r="AI6">
         <v>4498</v>
@@ -2440,9 +2428,6 @@
       <c r="BP6">
         <v>3753</v>
       </c>
-      <c r="BQ6">
-        <v>357</v>
-      </c>
       <c r="BR6">
         <v>2637</v>
       </c>
@@ -2483,7 +2468,7 @@
         <v>4023</v>
       </c>
       <c r="CE6">
-        <v>390</v>
+        <v>13128</v>
       </c>
       <c r="CF6">
         <v>7488</v>
@@ -2587,7 +2572,7 @@
         <v>4719</v>
       </c>
       <c r="P7">
-        <v>1654</v>
+        <v>8618</v>
       </c>
       <c r="Q7">
         <v>5615</v>
@@ -2608,7 +2593,7 @@
         <v>5864</v>
       </c>
       <c r="W7">
-        <v>110</v>
+        <v>3819</v>
       </c>
       <c r="X7">
         <v>7637</v>
@@ -2635,13 +2620,13 @@
         <v>165671</v>
       </c>
       <c r="AF7">
-        <v>146</v>
+        <v>3738</v>
       </c>
       <c r="AG7">
         <v>5981</v>
       </c>
       <c r="AH7">
-        <v>655</v>
+        <v>5080</v>
       </c>
       <c r="AI7">
         <v>4086</v>
@@ -2745,9 +2730,6 @@
       <c r="BP7">
         <v>2875</v>
       </c>
-      <c r="BQ7">
-        <v>420</v>
-      </c>
       <c r="BR7">
         <v>2572</v>
       </c>
@@ -2788,7 +2770,7 @@
         <v>3747</v>
       </c>
       <c r="CE7">
-        <v>403</v>
+        <v>10111</v>
       </c>
       <c r="CF7">
         <v>8737</v>
@@ -2892,7 +2874,7 @@
         <v>6582</v>
       </c>
       <c r="P8">
-        <v>1457</v>
+        <v>11126</v>
       </c>
       <c r="Q8">
         <v>13957</v>
@@ -2913,7 +2895,7 @@
         <v>10992</v>
       </c>
       <c r="W8">
-        <v>172</v>
+        <v>6590</v>
       </c>
       <c r="X8">
         <v>8225</v>
@@ -2940,13 +2922,13 @@
         <v>175807</v>
       </c>
       <c r="AF8">
-        <v>170</v>
+        <v>5739</v>
       </c>
       <c r="AG8">
         <v>7867</v>
       </c>
       <c r="AH8">
-        <v>1081</v>
+        <v>6386</v>
       </c>
       <c r="AI8">
         <v>7473</v>
@@ -3050,9 +3032,6 @@
       <c r="BP8">
         <v>5564</v>
       </c>
-      <c r="BQ8">
-        <v>721</v>
-      </c>
       <c r="BR8">
         <v>3573</v>
       </c>
@@ -3093,7 +3072,7 @@
         <v>4967</v>
       </c>
       <c r="CE8">
-        <v>559</v>
+        <v>21428</v>
       </c>
       <c r="CF8">
         <v>17037</v>
@@ -3197,7 +3176,7 @@
         <v>10086</v>
       </c>
       <c r="P9">
-        <v>1569</v>
+        <v>22050</v>
       </c>
       <c r="Q9">
         <v>31520</v>
@@ -3218,7 +3197,7 @@
         <v>15399</v>
       </c>
       <c r="W9">
-        <v>155</v>
+        <v>7984</v>
       </c>
       <c r="X9">
         <v>12544</v>
@@ -3245,13 +3224,13 @@
         <v>439831</v>
       </c>
       <c r="AF9">
-        <v>253</v>
+        <v>10555</v>
       </c>
       <c r="AG9">
         <v>17712</v>
       </c>
       <c r="AH9">
-        <v>536</v>
+        <v>7565</v>
       </c>
       <c r="AI9">
         <v>16427</v>
@@ -3355,9 +3334,6 @@
       <c r="BP9">
         <v>6655</v>
       </c>
-      <c r="BQ9">
-        <v>984</v>
-      </c>
       <c r="BR9">
         <v>4632</v>
       </c>
@@ -3398,7 +3374,7 @@
         <v>8155</v>
       </c>
       <c r="CE9">
-        <v>843</v>
+        <v>30485</v>
       </c>
       <c r="CF9">
         <v>20391</v>
@@ -3502,7 +3478,7 @@
         <v>9977</v>
       </c>
       <c r="P10">
-        <v>1376</v>
+        <v>19425</v>
       </c>
       <c r="Q10">
         <v>12710</v>
@@ -3523,7 +3499,7 @@
         <v>9407</v>
       </c>
       <c r="W10">
-        <v>123</v>
+        <v>6051</v>
       </c>
       <c r="X10">
         <v>7121</v>
@@ -3550,13 +3526,13 @@
         <v>116614</v>
       </c>
       <c r="AF10">
-        <v>225</v>
+        <v>7038</v>
       </c>
       <c r="AG10">
         <v>42474</v>
       </c>
       <c r="AH10">
-        <v>683</v>
+        <v>9719</v>
       </c>
       <c r="AI10">
         <v>7359</v>
@@ -3660,9 +3636,6 @@
       <c r="BP10">
         <v>4538</v>
       </c>
-      <c r="BQ10">
-        <v>393</v>
-      </c>
       <c r="BR10">
         <v>3904</v>
       </c>
@@ -3703,7 +3676,7 @@
         <v>5135</v>
       </c>
       <c r="CE10">
-        <v>730</v>
+        <v>10261</v>
       </c>
       <c r="CF10">
         <v>11324</v>
@@ -3807,7 +3780,7 @@
         <v>21029</v>
       </c>
       <c r="P11">
-        <v>2442</v>
+        <v>48644</v>
       </c>
       <c r="Q11">
         <v>26602</v>
@@ -3828,7 +3801,7 @@
         <v>27866</v>
       </c>
       <c r="W11">
-        <v>178</v>
+        <v>11422</v>
       </c>
       <c r="X11">
         <v>21299</v>
@@ -3855,13 +3828,13 @@
         <v>374037</v>
       </c>
       <c r="AF11">
-        <v>308</v>
+        <v>13124</v>
       </c>
       <c r="AG11">
         <v>19410</v>
       </c>
       <c r="AH11">
-        <v>1217</v>
+        <v>18270</v>
       </c>
       <c r="AI11">
         <v>16813</v>
@@ -3965,9 +3938,6 @@
       <c r="BP11">
         <v>15143</v>
       </c>
-      <c r="BQ11">
-        <v>619</v>
-      </c>
       <c r="BR11">
         <v>6892</v>
       </c>
@@ -4008,7 +3978,7 @@
         <v>10778</v>
       </c>
       <c r="CE11">
-        <v>541</v>
+        <v>17232</v>
       </c>
       <c r="CF11">
         <v>37939</v>
@@ -4112,7 +4082,7 @@
         <v>15238</v>
       </c>
       <c r="P12">
-        <v>2199</v>
+        <v>39223</v>
       </c>
       <c r="Q12">
         <v>15493</v>
@@ -4133,7 +4103,7 @@
         <v>36411</v>
       </c>
       <c r="W12">
-        <v>195</v>
+        <v>10843</v>
       </c>
       <c r="X12">
         <v>17087</v>
@@ -4160,13 +4130,13 @@
         <v>549225</v>
       </c>
       <c r="AF12">
-        <v>244</v>
+        <v>10594</v>
       </c>
       <c r="AG12">
         <v>29635</v>
       </c>
       <c r="AH12">
-        <v>599</v>
+        <v>9494</v>
       </c>
       <c r="AI12">
         <v>16099</v>
@@ -4270,9 +4240,6 @@
       <c r="BP12">
         <v>7281</v>
       </c>
-      <c r="BQ12">
-        <v>428</v>
-      </c>
       <c r="BR12">
         <v>6142</v>
       </c>
@@ -4313,7 +4280,7 @@
         <v>7560</v>
       </c>
       <c r="CE12">
-        <v>366</v>
+        <v>13472</v>
       </c>
       <c r="CF12">
         <v>20683</v>
@@ -4417,7 +4384,7 @@
         <v>21360</v>
       </c>
       <c r="P13">
-        <v>1139</v>
+        <v>20812</v>
       </c>
       <c r="Q13">
         <v>13827</v>
@@ -4438,7 +4405,7 @@
         <v>16708</v>
       </c>
       <c r="W13">
-        <v>171</v>
+        <v>7703</v>
       </c>
       <c r="X13">
         <v>13216</v>
@@ -4465,13 +4432,13 @@
         <v>122169</v>
       </c>
       <c r="AF13">
-        <v>229</v>
+        <v>8656</v>
       </c>
       <c r="AG13">
         <v>16627</v>
       </c>
       <c r="AH13">
-        <v>626</v>
+        <v>9498</v>
       </c>
       <c r="AI13">
         <v>23375</v>
@@ -4575,9 +4542,6 @@
       <c r="BP13">
         <v>5516</v>
       </c>
-      <c r="BQ13">
-        <v>481</v>
-      </c>
       <c r="BR13">
         <v>4500</v>
       </c>
@@ -4618,7 +4582,7 @@
         <v>6363</v>
       </c>
       <c r="CE13">
-        <v>405</v>
+        <v>10821</v>
       </c>
       <c r="CF13">
         <v>16142</v>
